--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -101,7 +101,7 @@
     <t>${summary.engineHours/86400000.0}</t>
   </si>
   <si>
-    <t>${from.toString("YYYY.MM.dd HH:mm:ss")+" - "+to.toString("YYYY.MM.dd HH:mm:ss")}</t>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
 </sst>
 </file>
